--- a/main/static/records/Grade6.xlsx
+++ b/main/static/records/Grade6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0246</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007082897</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t xml:space="preserve">09328011599</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0208</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007082904</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">09988612968</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0087</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007082919</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t xml:space="preserve">09216988375</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0054</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007082926</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t xml:space="preserve">09391956763</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0218 </t>
+  </si>
+  <si>
     <t xml:space="preserve">0007083147</t>
   </si>
   <si>
@@ -167,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">09494523350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0252</t>
   </si>
 </sst>
 </file>
@@ -463,22 +481,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H7"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,135 +544,153 @@
       <c r="H2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
